--- a/MacroScaleFeedbacks/Variable_Name_Metadata.xlsx
+++ b/MacroScaleFeedbacks/Variable_Name_Metadata.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KFarrell\Desktop\R\ProjectEDDIE\CrossScale Emergence\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJF\Desktop\R\MacrosystemsEDDIE\MacroScaleFeedbacks\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1438EB9-D289-40C3-8433-F32078A122FC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6420"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -105,9 +106,6 @@
   </si>
   <si>
     <t>TEMP</t>
-  </si>
-  <si>
-    <t>OGM_don</t>
   </si>
   <si>
     <t>NIT_nit</t>
@@ -160,9 +158,6 @@
     <t>water temperature</t>
   </si>
   <si>
-    <t>dissolved organic nitrogen concentration in inflow water</t>
-  </si>
-  <si>
     <t>nitrate concentration in inflow water</t>
   </si>
   <si>
@@ -277,11 +272,17 @@
       <t xml:space="preserve"> mg/L by multiplying by 32.29</t>
     </r>
   </si>
+  <si>
+    <t>OGM_doc</t>
+  </si>
+  <si>
+    <t>dissolved organic carbon concentration in inflow water</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
@@ -353,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -375,7 +376,8 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -689,12 +691,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -707,7 +707,7 @@
     <col min="7" max="7" width="55" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -727,10 +727,10 @@
         <v>20</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -741,13 +741,13 @@
         <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E2" s="10">
         <v>36587</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -755,7 +755,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -764,10 +764,10 @@
         <v>-2.5139999999999998</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -775,7 +775,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -784,10 +784,10 @@
         <v>308.887</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -804,10 +804,10 @@
         <v>20.05</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -824,10 +824,10 @@
         <v>38.619999999999997</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -847,7 +847,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -864,13 +864,13 @@
         <v>5.9199999999999997E-4</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -887,11 +887,11 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -902,13 +902,13 @@
         <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E10" s="10">
         <v>36587</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -916,7 +916,7 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>5</v>
@@ -925,13 +925,13 @@
         <v>2.38</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -939,7 +939,7 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>5</v>
@@ -948,10 +948,10 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -968,10 +968,10 @@
         <v>17.2</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -979,19 +979,19 @@
         <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>5</v>
       </c>
       <c r="E14">
-        <v>92.601500000000001</v>
+        <v>926.01530000000002</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -999,65 +999,66 @@
         <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>5</v>
       </c>
       <c r="E15">
-        <v>926.01530000000002</v>
+        <v>14.084899999999999</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C16" t="s">
-        <v>49</v>
+      <c r="C16" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E16">
-        <v>14.084899999999999</v>
-      </c>
-      <c r="F16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E16" s="11">
+        <v>0.79179641999999995</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="12"/>
+    </row>
+    <row r="17" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E17" s="5">
-        <v>0.79179641999999995</v>
+        <v>92.601500000000001</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G17" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H17" s="11"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
@@ -1066,22 +1067,22 @@
         <v>15</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E18" s="10">
         <v>36587</v>
       </c>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
         <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
@@ -1090,7 +1091,7 @@
         <v>1.41</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
